--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelsGiaSpDvCongIchNew.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelsGiaSpDvCongIchNew.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE90CFF-90D6-4EBB-B21D-54D4CCFDC04C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11DA85-B978-4DC5-80A7-A6640B033FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Giá Từ</t>
   </si>
@@ -55,19 +55,30 @@
   </si>
   <si>
     <t>Lần/ con</t>
+  </si>
+  <si>
+    <t>GIÁ SẢN PHẨM DỊCH VỤ CÔNG ÍCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,16 +98,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,82 +469,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="24.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="8">
         <v>4400</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="8">
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="8">
         <v>1700</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="8">
         <v>1900</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:E1048576" xr:uid="{CC580D60-30CF-4360-A0D1-0546B53B7CD9}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>